--- a/bets.xlsx
+++ b/bets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -58,6 +58,9 @@
     <t>e6b79bda37637fdc4773c2000230dd79</t>
   </si>
   <si>
+    <t>037c13a4010b16c3963168d10f8427f2</t>
+  </si>
+  <si>
     <t>a4c655ccb620e21246e898e3899c3aee</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t>soccer_germany_bundesliga2</t>
+  </si>
+  <si>
+    <t>soccer_belgium_first_div</t>
   </si>
   <si>
     <t>soccer_spain_la_liga</t>
@@ -452,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,34 +504,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>21.22</v>
+        <v>26.45</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>-128.21</v>
+        <v>105</v>
       </c>
       <c r="G2">
-        <v>68.09999999999999</v>
+        <v>61.68</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K2">
-        <v>31.9</v>
+        <v>38.32</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -533,34 +539,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>1.37</v>
+        <v>7.14</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="G3">
-        <v>46.93</v>
+        <v>43.91</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <v>-109.89</v>
       </c>
       <c r="K3">
-        <v>53.07</v>
+        <v>56.09</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -568,34 +574,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>23.48</v>
+        <v>22.45</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G4">
-        <v>50.61</v>
+        <v>51.02</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4">
         <v>150</v>
       </c>
       <c r="K4">
-        <v>49.39</v>
+        <v>48.98</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -603,34 +609,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>20.99</v>
+        <v>0.08</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>140</v>
+        <v>-131.58</v>
       </c>
       <c r="G5">
-        <v>50.41</v>
+        <v>56.86</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J5">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="K5">
-        <v>49.59</v>
+        <v>43.14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -641,31 +647,66 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>30.91</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>140</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6">
-        <v>188</v>
-      </c>
-      <c r="G6">
-        <v>45.45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J6">
         <v>140</v>
       </c>
       <c r="K6">
-        <v>54.55</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>28.16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>175</v>
+      </c>
+      <c r="G7">
+        <v>46.6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>140</v>
+      </c>
+      <c r="K7">
+        <v>53.4</v>
       </c>
     </row>
   </sheetData>
